--- a/Punkte.xlsx
+++ b/Punkte.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianmiska/Library/Mobile Documents/com~apple~CloudDocs/Studium/WiSe 17:18/SE III FP/SEIII/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17140" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="17145" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Blatt 1</t>
   </si>
@@ -81,6 +73,9 @@
   </si>
   <si>
     <t>Punkte bisher</t>
+  </si>
+  <si>
+    <t>Bonus</t>
   </si>
 </sst>
 </file>
@@ -130,7 +125,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -397,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -421,10 +416,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,12 +432,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>IF(COUNTA(C2) &gt; 0,B2-C2,0)</f>
+      <c r="E2">
+        <f>IF(COUNTA(C2) &gt; 0,B2-C2+D2,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -447,14 +445,17 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">IF(COUNTA(C3) &gt; 0,B3-C3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">IF(COUNTA(C3) &gt; 0,B3-C3+D3,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -462,14 +463,17 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -479,138 +483,150 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>35</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>35</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>40</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>355</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D2:D13)</f>
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>228</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="1">
-        <f>D14/B14</f>
-        <v>0.36901408450704226</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f>E14/B14</f>
+        <v>0.61126005361930291</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="1">
-        <f>D14/(B14/2)</f>
-        <v>0.73802816901408452</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>E14/(B14/2)</f>
+        <v>1.2225201072386058</v>
+      </c>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Punkte.xlsx
+++ b/Punkte.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianmiska/Library/Mobile Documents/com~apple~CloudDocs/Studium/WiSe 17:18/SE III FP/SEIII/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="17145" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17140" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -125,7 +133,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -392,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,10 +411,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -544,11 +552,17 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,11 +616,11 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E14">
         <f>SUM(E2:E13)</f>
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -615,16 +629,16 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <f>E14/B14</f>
-        <v>0.61126005361930291</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="1">
         <f>E14/(B14/2)</f>
-        <v>1.2225201072386058</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
